--- a/test-case/TC(Manual)/test-case.xlsx
+++ b/test-case/TC(Manual)/test-case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirsanov-ilya/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FABE52-51D0-3345-A5E7-6BBD4EEA6CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515674E1-E104-A54A-9985-1AA97C21707F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16080" xr2:uid="{0F98C9C5-D245-F548-8DA4-227CDC3DA70F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -504,7 +504,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -575,9 +575,7 @@
       <c r="G3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="H3" s="6"/>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -592,9 +590,7 @@
       <c r="G4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="H4" s="6"/>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -609,9 +605,7 @@
       <c r="G5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="85" x14ac:dyDescent="0.2">
@@ -626,9 +620,7 @@
       <c r="G6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="H6" s="6"/>
       <c r="I6" s="7"/>
     </row>
   </sheetData>
